--- a/medicine/Psychotrope/Markus_Del_Monego/Markus_Del_Monego.xlsx
+++ b/medicine/Psychotrope/Markus_Del_Monego/Markus_Del_Monego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Markus Del Monego (né le 11 avril 1966 à Bâle en Suisse) est un sommelier allemand qui a gagné le concours du « Meilleur sommelier du monde 1998 ». 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Markus Del Monego passe son baccalauréat en 1985 au lycée Kant à Weil-am-Rhein puis commence son apprentissage 'Hotelfachmann' terminé avec succès en 1988 au Dorint Kurhotel Bad Brückenau. En 1988 il suit une formation de Sommellerie à l'Hôtel Vier Jahreszeiten de Hambourg puis devient Chef Sommelier et directeur du Park Hotel de Brême.
 En 1993 Université Cornell dans l'État de New York aux États-Unis.
@@ -545,7 +559,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 - Meilleur Jeune Sommelier d'Allemagne (DWI)
 1988 - Meilleur Sommelier de l'Allemagne (Trophée Ruinart)
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2004 : Bien déguster et connaître le vin de Evelyne Malnic et Markus Del Monego.
 2004 et 2005 : Château Margaux de Nicholas Faith, Jean Dethier, George Lepre, et Markus Del Monego.</t>
